--- a/assets.xlsx
+++ b/assets.xlsx
@@ -1,154 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>asset_contract_type</t>
-  </si>
-  <si>
-    <t>created_date</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nft_version</t>
-  </si>
-  <si>
-    <t>opensea_version</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>schema_name</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>total_supply</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>external_link</t>
-  </si>
-  <si>
-    <t>image_url</t>
-  </si>
-  <si>
-    <t>default_to_fiat</t>
-  </si>
-  <si>
-    <t>dev_buyer_fee_basis_points</t>
-  </si>
-  <si>
-    <t>dev_seller_fee_basis_points</t>
-  </si>
-  <si>
-    <t>only_proxied_transfers</t>
-  </si>
-  <si>
-    <t>opensea_buyer_fee_basis_points</t>
-  </si>
-  <si>
-    <t>opensea_seller_fee_basis_points</t>
-  </si>
-  <si>
-    <t>buyer_fee_basis_points</t>
-  </si>
-  <si>
-    <t>seller_fee_basis_points</t>
-  </si>
-  <si>
-    <t>payout_address</t>
-  </si>
-  <si>
-    <t>0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5</t>
-  </si>
-  <si>
-    <t>non-fungible</t>
-  </si>
-  <si>
-    <t>2021-07-16T07:26:50.782759</t>
-  </si>
-  <si>
-    <t>SupDucks</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>ERC721</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>The Sup Ducks collection is painstakingly handcrafted from locally sourced, divinely inspired items that were carefully harvested from a free range, organic plot of ether. Each Duck will enrich your life but most importantly, make your friends and colleagues jealous. So snatch them up and proudly claim your seat at the cool kids table.</t>
-  </si>
-  <si>
-    <t>https://www.supducks.com/</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/WNd3NNCiOAkD3rUNCau9qXDPQsnH3ZA8PcDMhlsfLnK6J1vSNpJnPFCjA-_l03LbCxwAYC1Mj8IcRQch7YMTDLnn_c-jAQ03RWRdEw=s120</t>
-  </si>
-  <si>
-    <t>0xa18a2078d44c93867db711ed80c0e2784bb3c8d3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -163,41 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -485,154 +420,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>asset_contract_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>created_date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>nft_version</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>opensea_version</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>owner</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>schema_name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>symbol</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>total_supply</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>external_link</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>image_url</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>default_to_fiat</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>dev_buyer_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>dev_seller_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>only_proxied_transfers</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>opensea_buyer_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>opensea_seller_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>buyer_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>seller_fee_basis_points</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>payout_address</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0x3fe1a4c1481c8351e91b64d5c398b159de07cbc5</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>non-fungible</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2021-07-16T07:26:50.782759</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>SupDucks</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>56953037</v>
       </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ERC721</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>The Sup Ducks collection is painstakingly handcrafted from locally sourced, divinely inspired items that were carefully harvested from a free range, organic plot of ether. Each Duck will enrich your life but most importantly, make your friends and colleagues jealous. So snatch them up and proudly claim your seat at the cool kids table.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>https://www.supducks.com/</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://lh3.googleusercontent.com/WNd3NNCiOAkD3rUNCau9qXDPQsnH3ZA8PcDMhlsfLnK6J1vSNpJnPFCjA-_l03LbCxwAYC1Mj8IcRQch7YMTDLnn_c-jAQ03RWRdEw=s120</t>
+        </is>
       </c>
       <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>300</v>
       </c>
       <c r="R2" t="b">
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>250</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>550</v>
       </c>
-      <c r="W2" t="s">
-        <v>33</v>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0xa18a2078d44c93867db711ed80c0e2784bb3c8d3</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>